--- a/doc/mos6502-bus.xlsx
+++ b/doc/mos6502-bus.xlsx
@@ -75,13 +75,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -113,15 +113,29 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" vert="wordArtVertRtl" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>ADL</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -131,13 +145,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -169,15 +183,29 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" vert="wordArtVertRtl" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>ADH</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -187,13 +215,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -225,15 +253,29 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" vert="wordArtVertRtl" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>A-BUS</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -243,14 +285,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -259,8 +301,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1028700" y="1419225"/>
-          <a:ext cx="771524" cy="190500"/>
+          <a:off x="1047750" y="2476500"/>
+          <a:ext cx="781049" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -294,14 +336,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -311,8 +353,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3600450" y="1143000"/>
-          <a:ext cx="257175" cy="3048000"/>
+          <a:off x="4452939" y="5334000"/>
+          <a:ext cx="257174" cy="2667000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -333,15 +375,29 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" vert="wordArtVertRtl" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>BAL</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -350,14 +406,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -367,8 +423,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3600450" y="4572000"/>
-          <a:ext cx="257175" cy="2857500"/>
+          <a:off x="4452939" y="8191500"/>
+          <a:ext cx="257174" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -389,15 +445,29 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" vert="wordArtVertRtl" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>BAH</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -407,13 +477,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -423,8 +493,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11117036" y="1524000"/>
-          <a:ext cx="258535" cy="8953500"/>
+          <a:off x="11263313" y="1143000"/>
+          <a:ext cx="261937" cy="6858000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -445,15 +515,29 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" vert="wordArtVertRtl" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>INT-D-BUS</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -463,13 +547,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -501,15 +585,29 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" vert="wordArtVertRtl" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>INDEX-BUS</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -519,14 +617,14 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -535,8 +633,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7458075" y="190500"/>
-          <a:ext cx="257175" cy="1524000"/>
+          <a:off x="7334250" y="952500"/>
+          <a:ext cx="261938" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -557,15 +655,29 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" vert="wordArtVertRtl" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>ACC-IN</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -575,14 +687,14 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -591,8 +703,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7458075" y="381000"/>
-          <a:ext cx="257175" cy="1524000"/>
+          <a:off x="8382000" y="1524000"/>
+          <a:ext cx="261938" cy="761999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -613,31 +725,45 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" vert="wordArtVertRtl" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>ACC-OUT</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>71</xdr:row>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -647,8 +773,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10858500" y="12192000"/>
-          <a:ext cx="3465739" cy="190500"/>
+          <a:off x="12730162" y="9715500"/>
+          <a:ext cx="3509963" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -687,26 +813,26 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>3</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>119066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>3</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="右矢印 17"/>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="左右矢印 17"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="11151054" y="10633986"/>
-          <a:ext cx="190500" cy="258534"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
+          <a:off x="11203783" y="8179597"/>
+          <a:ext cx="380997" cy="261936"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -739,14 +865,14 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>107158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>107158</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -755,25 +881,26 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5657850" y="2286000"/>
-          <a:ext cx="1028700" cy="1714500"/>
+          <a:off x="9429750" y="6203158"/>
+          <a:ext cx="1047750" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -783,16 +910,8 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Input</a:t>
+            <a:t>IDL_H</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>  Data </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Latch</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -803,13 +922,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -819,8 +938,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6943725" y="3619500"/>
-          <a:ext cx="257175" cy="190500"/>
+          <a:off x="10739438" y="7239000"/>
+          <a:ext cx="261937" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -855,14 +974,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>107158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>107158</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -871,8 +990,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4114799" y="2857500"/>
-          <a:ext cx="1285875" cy="190500"/>
+          <a:off x="4972049" y="5631658"/>
+          <a:ext cx="4191000" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -907,13 +1026,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -923,8 +1042,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5143500" y="3619500"/>
-          <a:ext cx="257175" cy="190500"/>
+          <a:off x="8905875" y="7239000"/>
+          <a:ext cx="261938" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -959,14 +1078,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -975,8 +1094,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4114801" y="4762500"/>
-          <a:ext cx="771524" cy="190500"/>
+          <a:off x="4976814" y="8467724"/>
+          <a:ext cx="3143249" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1011,14 +1130,14 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1027,8 +1146,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5143500" y="4762500"/>
-          <a:ext cx="2057400" cy="190500"/>
+          <a:off x="8905875" y="8286750"/>
+          <a:ext cx="2095500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1063,13 +1182,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1079,25 +1198,26 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10858500" y="11049000"/>
-          <a:ext cx="1034143" cy="571500"/>
+          <a:off x="11001375" y="9525000"/>
+          <a:ext cx="785813" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1117,103 +1237,44 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="右矢印 28"/>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>261936</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="二等辺三角形 29"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="11150373" y="11777663"/>
-          <a:ext cx="190500" cy="257174"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="二等辺三角形 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4310063" y="4738688"/>
-          <a:ext cx="381000" cy="257175"/>
+          <a:off x="6226968" y="8441531"/>
+          <a:ext cx="381000" cy="261938"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1235,13 +1296,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1257,19 +1318,20 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1291,13 +1353,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1307,25 +1369,26 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9307286" y="9715500"/>
-          <a:ext cx="1034143" cy="1143000"/>
+          <a:off x="9429750" y="8763000"/>
+          <a:ext cx="1047750" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1347,13 +1410,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1399,13 +1462,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1415,8 +1478,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7756071" y="9906000"/>
-          <a:ext cx="1292679" cy="190500"/>
+          <a:off x="7858125" y="8953500"/>
+          <a:ext cx="1309688" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1451,13 +1514,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1503,13 +1566,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1519,8 +1582,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8486775" y="6477000"/>
-          <a:ext cx="257175" cy="190500"/>
+          <a:off x="10739438" y="7810500"/>
+          <a:ext cx="261937" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1555,13 +1618,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1607,13 +1670,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1623,8 +1686,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4912179" y="10477500"/>
-          <a:ext cx="4136571" cy="190500"/>
+          <a:off x="4976813" y="9525000"/>
+          <a:ext cx="4191000" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1659,13 +1722,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1675,25 +1738,26 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12668250" y="11049000"/>
-          <a:ext cx="1034143" cy="571500"/>
+          <a:off x="12834938" y="8572500"/>
+          <a:ext cx="1047750" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1713,15 +1777,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>261936</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1731,8 +1795,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="13219340" y="11776982"/>
-          <a:ext cx="190500" cy="258535"/>
+          <a:off x="13132593" y="9298782"/>
+          <a:ext cx="190500" cy="261936"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1767,13 +1831,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1783,8 +1847,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11632745" y="10096500"/>
-          <a:ext cx="775608" cy="190500"/>
+          <a:off x="11782424" y="7810500"/>
+          <a:ext cx="785813" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
@@ -1819,13 +1883,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1835,25 +1899,26 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4629150" y="3238500"/>
-          <a:ext cx="1028700" cy="1333500"/>
+          <a:off x="5500688" y="7239000"/>
+          <a:ext cx="1047750" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1875,13 +1940,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1891,8 +1956,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4114800" y="3619500"/>
-          <a:ext cx="257175" cy="190500"/>
+          <a:off x="4976813" y="7429500"/>
+          <a:ext cx="261937" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1927,13 +1992,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1943,8 +2008,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5915025" y="3619500"/>
-          <a:ext cx="257175" cy="190500"/>
+          <a:off x="6810375" y="7429500"/>
+          <a:ext cx="261938" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1979,13 +2044,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1995,8 +2060,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5915025" y="4191000"/>
-          <a:ext cx="4114800" cy="190500"/>
+          <a:off x="6810375" y="7810500"/>
+          <a:ext cx="4191000" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2031,13 +2096,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2053,19 +2118,20 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2087,13 +2153,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2139,13 +2205,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2191,13 +2257,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2213,19 +2279,20 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2247,13 +2314,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2299,13 +2366,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2351,14 +2418,14 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2367,25 +2434,26 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9515475" y="190500"/>
-          <a:ext cx="514350" cy="1905000"/>
+          <a:off x="9429750" y="761999"/>
+          <a:ext cx="523875" cy="2095499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2407,13 +2475,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2423,8 +2491,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8486775" y="1143000"/>
-          <a:ext cx="257175" cy="190500"/>
+          <a:off x="8905875" y="2476500"/>
+          <a:ext cx="261938" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2459,13 +2527,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2475,8 +2543,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9315451" y="1333500"/>
-          <a:ext cx="714374" cy="190500"/>
+          <a:off x="10272714" y="2476500"/>
+          <a:ext cx="728661" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2511,14 +2579,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107158</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2527,33 +2595,26 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1223963" y="1395412"/>
-          <a:ext cx="381000" cy="257175"/>
+          <a:off x="1250157" y="2452689"/>
+          <a:ext cx="381000" cy="261937"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2575,14 +2636,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2591,8 +2652,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1028700" y="3895725"/>
-          <a:ext cx="771524" cy="190500"/>
+          <a:off x="1047750" y="4572000"/>
+          <a:ext cx="781049" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2627,14 +2688,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119065</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2643,33 +2704,26 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1223963" y="3871912"/>
-          <a:ext cx="381000" cy="257175"/>
+          <a:off x="1250157" y="4560096"/>
+          <a:ext cx="381000" cy="261937"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2691,13 +2745,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2707,25 +2761,25 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3343275" y="7429500"/>
-          <a:ext cx="771525" cy="1143000"/>
+          <a:off x="2357438" y="7429500"/>
+          <a:ext cx="785812" cy="2476500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2761,24 +2815,76 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="右矢印 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3405188" y="7620000"/>
+          <a:ext cx="785812" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="右矢印 62"/>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="右矢印 63"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3600450" y="7239000"/>
-          <a:ext cx="771525" cy="190500"/>
+          <a:off x="3405188" y="9525000"/>
+          <a:ext cx="785812" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2811,78 +2917,96 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="右矢印 63"/>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3600450" y="7810500"/>
-          <a:ext cx="771525" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+          <a:off x="7334250" y="4000500"/>
+          <a:ext cx="261938" cy="5334000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ADDR-BACK-BUS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7458075" y="3048000"/>
-          <a:ext cx="257175" cy="6858000"/>
+          <a:off x="8382000" y="7048500"/>
+          <a:ext cx="261938" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2903,69 +3027,13 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" vert="wordArtVertRtl" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ADDR-BACK</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4629150" y="3238500"/>
-          <a:ext cx="257175" cy="2667000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" vert="wordArtVertRtl" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>IDL-H-OUT</a:t>
+            <a:t>IDL-H-OUT-BUS</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2977,13 +3045,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2999,19 +3067,20 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3033,13 +3102,13 @@
     <xdr:from>
       <xdr:col>56</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3049,25 +3118,26 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14478000" y="9906000"/>
-          <a:ext cx="1034143" cy="1714500"/>
+          <a:off x="14668500" y="7620000"/>
+          <a:ext cx="1047750" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3089,13 +3159,13 @@
     <xdr:from>
       <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3105,8 +3175,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13960929" y="11239500"/>
-          <a:ext cx="258535" cy="190500"/>
+          <a:off x="14144625" y="8763000"/>
+          <a:ext cx="261938" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3141,13 +3211,13 @@
     <xdr:from>
       <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3157,8 +3227,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13960929" y="10096500"/>
-          <a:ext cx="258535" cy="190500"/>
+          <a:off x="14144625" y="7810500"/>
+          <a:ext cx="261938" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
@@ -3193,13 +3263,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3245,13 +3315,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3297,13 +3367,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3349,13 +3419,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3405,13 +3475,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3457,13 +3527,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3509,13 +3579,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3525,8 +3595,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6686550" y="762000"/>
-          <a:ext cx="514350" cy="190500"/>
+          <a:off x="6548438" y="1143000"/>
+          <a:ext cx="523875" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3561,13 +3631,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3577,8 +3647,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7972425" y="381000"/>
-          <a:ext cx="1285874" cy="190500"/>
+          <a:off x="7858125" y="1143000"/>
+          <a:ext cx="1304924" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3613,13 +3683,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3665,13 +3735,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3717,14 +3787,14 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3733,33 +3803,26 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9504589" y="8347983"/>
-          <a:ext cx="381000" cy="258536"/>
+          <a:off x="9632157" y="8251032"/>
+          <a:ext cx="381000" cy="261937"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3780,14 +3843,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>257172</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>257169</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>258534</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:colOff>258531</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3797,8 +3860,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6462029" y="762000"/>
-          <a:ext cx="6723291" cy="11239500"/>
+          <a:off x="6543669" y="190500"/>
+          <a:ext cx="6811737" cy="8191500"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst>
@@ -3842,13 +3905,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3858,25 +3921,26 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12668250" y="9906000"/>
-          <a:ext cx="1034143" cy="571500"/>
+          <a:off x="12834938" y="7620000"/>
+          <a:ext cx="1047750" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3888,6 +3952,167 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>Status Reg</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>119059</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="左右矢印 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12049125" y="9715500"/>
+          <a:ext cx="380997" cy="261936"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429750" y="5524500"/>
+          <a:ext cx="1047750" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>IDL_L</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>107158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>107158</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="右矢印 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10739438" y="5631658"/>
+          <a:ext cx="261937" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -4208,11 +4433,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BC56" sqref="BC56"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="8" max="8" width="3.375" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/mos6502-bus.xlsx
+++ b/doc/mos6502-bus.xlsx
@@ -1512,80 +1512,80 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>142873</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>35717</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="左右矢印 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10620373" y="4810125"/>
+          <a:ext cx="416719" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="右矢印 34"/>
+      <xdr:colOff>83342</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="左右矢印 35"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8486775" y="1714500"/>
-          <a:ext cx="257175" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="右矢印 35"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10739438" y="7810500"/>
-          <a:ext cx="261937" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
+          <a:off x="10608468" y="7846218"/>
+          <a:ext cx="476249" cy="214313"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -4434,7 +4434,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="AH50" sqref="AH50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15" customHeight="1"/>

--- a/doc/mos6502-bus.xlsx
+++ b/doc/mos6502-bus.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motooka\Documents\001-proj\999.my-proj\001.nes-fpga\repo\motonesfpga\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="22635" windowHeight="11655"/>
   </bookViews>
@@ -16,19 +21,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -62,10 +67,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -73,15 +86,67 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123392</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="右矢印 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="6858000"/>
+          <a:ext cx="1028267" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -145,13 +210,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -215,13 +280,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -285,13 +350,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -337,13 +402,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -407,13 +472,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -477,13 +542,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -547,13 +612,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -617,13 +682,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -687,13 +752,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -757,13 +822,13 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -813,13 +878,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>119066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -865,13 +930,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -922,13 +987,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -974,13 +1039,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1026,13 +1091,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1078,13 +1143,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1130,13 +1195,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1182,13 +1247,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1239,13 +1304,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>261936</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1296,13 +1361,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1353,13 +1418,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1410,13 +1475,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1462,13 +1527,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1514,13 +1579,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>142873</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>35717</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1566,13 +1631,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>130968</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>35718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>83342</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1618,13 +1683,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1670,13 +1735,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1722,13 +1787,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1779,13 +1844,13 @@
     <xdr:from>
       <xdr:col>50</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>261936</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1831,13 +1896,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1883,13 +1948,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1940,13 +2005,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1992,13 +2057,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2044,13 +2109,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2096,13 +2161,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2153,13 +2218,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2205,13 +2270,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2257,13 +2322,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2314,13 +2379,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2366,13 +2431,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2418,13 +2483,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>190498</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2475,13 +2540,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2527,13 +2592,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2579,13 +2644,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2636,13 +2701,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2688,13 +2753,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>119065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>119065</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2743,15 +2808,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>74604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2761,8 +2826,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2357438" y="7429500"/>
-          <a:ext cx="785812" cy="2476500"/>
+          <a:off x="1131094" y="6170604"/>
+          <a:ext cx="1357313" cy="3163896"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2813,119 +2878,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="右矢印 62"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3405188" y="7620000"/>
-          <a:ext cx="785812" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="右矢印 63"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3405188" y="9525000"/>
-          <a:ext cx="785812" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2989,13 +2950,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3045,13 +3006,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3102,13 +3063,13 @@
     <xdr:from>
       <xdr:col>56</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3159,13 +3120,13 @@
     <xdr:from>
       <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3211,13 +3172,13 @@
     <xdr:from>
       <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3263,13 +3224,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3315,13 +3276,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3367,13 +3328,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3419,13 +3380,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3475,13 +3436,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3527,13 +3488,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3579,13 +3540,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3631,13 +3592,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3683,13 +3644,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3735,13 +3696,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3787,13 +3748,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3844,13 +3805,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>257169</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>258531</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3905,13 +3866,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3962,13 +3923,13 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>119059</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>71436</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4014,13 +3975,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4071,13 +4032,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4089,6 +4050,58 @@
         <a:xfrm flipH="1">
           <a:off x="10739438" y="5631658"/>
           <a:ext cx="261937" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123392</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="右矢印 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="8953500"/>
+          <a:ext cx="1028267" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -4430,16 +4443,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AH50" sqref="AH50"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="8" max="8" width="3.375" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
@@ -4449,12 +4462,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4462,12 +4475,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/mos6502-bus.xlsx
+++ b/doc/mos6502-bus.xlsx
@@ -4446,8 +4446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/doc/mos6502-bus.xlsx
+++ b/doc/mos6502-bus.xlsx
@@ -2128,7 +2128,7 @@
           <a:off x="6810375" y="7810500"/>
           <a:ext cx="4191000" cy="190500"/>
         </a:xfrm>
-        <a:prstGeom prst="rightArrow">
+        <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -2237,7 +2237,7 @@
           <a:off x="9315451" y="1524000"/>
           <a:ext cx="714374" cy="190500"/>
         </a:xfrm>
-        <a:prstGeom prst="rightArrow">
+        <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -2398,7 +2398,7 @@
           <a:off x="9315451" y="571500"/>
           <a:ext cx="714374" cy="190500"/>
         </a:xfrm>
-        <a:prstGeom prst="rightArrow">
+        <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -2611,7 +2611,7 @@
           <a:off x="10272714" y="2476500"/>
           <a:ext cx="728661" cy="190500"/>
         </a:xfrm>
-        <a:prstGeom prst="rightArrow">
+        <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -4446,8 +4446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BI33" sqref="BI33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/doc/mos6502-bus.xlsx
+++ b/doc/mos6502-bus.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="22635" windowHeight="11655"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="22635" windowHeight="11655" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="old" sheetId="1" r:id="rId1"/>
+    <sheet name="new" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -4127,6 +4128,3731 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123392</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="右矢印 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="4762500"/>
+          <a:ext cx="1028267" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="952500"/>
+          <a:ext cx="228600" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ADL</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="2857500"/>
+          <a:ext cx="226219" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ADH</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="452438" y="3238500"/>
+          <a:ext cx="226218" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A-BUS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2381</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="右矢印 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="904875" y="1524001"/>
+          <a:ext cx="681037" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3845720" y="3429000"/>
+          <a:ext cx="226221" cy="1559718"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BAL</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3845721" y="8001000"/>
+          <a:ext cx="226218" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BAH</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="3048001"/>
+          <a:ext cx="226219" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INDEX-BUS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11333163" y="6858000"/>
+          <a:ext cx="1239838" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DIO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>119066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="左右矢印 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9753602" y="8577265"/>
+          <a:ext cx="380997" cy="228599"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8143875" y="9334500"/>
+          <a:ext cx="904875" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>IDL_H</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>107158</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="右矢印 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4343399" y="6012658"/>
+          <a:ext cx="3657600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9501188" y="8001000"/>
+          <a:ext cx="678656" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Data Bus Buffer</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8143875" y="6667500"/>
+          <a:ext cx="904875" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PCL</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8143875" y="8572500"/>
+          <a:ext cx="904875" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PCH</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>2380</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>2381</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="右矢印 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6788943" y="6858000"/>
+          <a:ext cx="1131094" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="右矢印 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6334125" y="8572500"/>
+          <a:ext cx="1583531" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>142873</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>35717</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="左右矢印 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9191623" y="6786563"/>
+          <a:ext cx="345282" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>83342</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="左右矢印 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9274968" y="8227218"/>
+          <a:ext cx="409574" cy="214313"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="右矢印 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4343400" y="4953000"/>
+          <a:ext cx="3657600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="右矢印 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4298156" y="8953500"/>
+          <a:ext cx="3619500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11201400" y="8001000"/>
+          <a:ext cx="914400" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Instruction Reg</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>261936</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="右矢印 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="11451431" y="8741569"/>
+          <a:ext cx="190500" cy="233361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="左右矢印 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10286999" y="7239000"/>
+          <a:ext cx="685800" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>173581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8143875" y="8589420"/>
+          <a:ext cx="904875" cy="537661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SP</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="4000500"/>
+          <a:ext cx="457200" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="右矢印 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8879682" y="3429000"/>
+          <a:ext cx="621506" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="右矢印 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7691438" y="3429000"/>
+          <a:ext cx="226218" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="3048000"/>
+          <a:ext cx="457200" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>X</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="右矢印 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8879682" y="2857500"/>
+          <a:ext cx="621506" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="右矢印 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7691438" y="2857500"/>
+          <a:ext cx="226218" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8143875" y="1523999"/>
+          <a:ext cx="452438" cy="952499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ACC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="右矢印 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8879682" y="1905000"/>
+          <a:ext cx="621506" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="二等辺三角形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1095375" y="1559720"/>
+          <a:ext cx="297658" cy="226219"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TSS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="右矢印 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="914400" y="3429000"/>
+          <a:ext cx="685799" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119065</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="二等辺三角形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1066800" y="3433765"/>
+          <a:ext cx="381000" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TSS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>174321</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1625599" y="4588180"/>
+          <a:ext cx="935569" cy="1301141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Reset</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>NMI</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>IRQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Vector</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2380</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>2380</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943224" y="3238500"/>
+          <a:ext cx="2488406" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>addr calc</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13038667" y="190499"/>
+          <a:ext cx="931333" cy="6286501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>Decoder</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="右矢印 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344400" y="8191500"/>
+          <a:ext cx="228600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="左右矢印 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344400" y="7239000"/>
+          <a:ext cx="228600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="左右矢印 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5655469" y="4381500"/>
+          <a:ext cx="3845719" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>2379</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>226217</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="右矢印 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5657848" y="2095501"/>
+          <a:ext cx="2259807" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="右矢印 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5715000" y="3048000"/>
+          <a:ext cx="1371600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="右矢印 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3863581" y="3411140"/>
+          <a:ext cx="190500" cy="226220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="右矢印 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715001" y="3619500"/>
+          <a:ext cx="457200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>2379</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>2381</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="右矢印 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5657848" y="1714500"/>
+          <a:ext cx="2262189" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="右矢印 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2286000" y="3429000"/>
+          <a:ext cx="457200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="右矢印 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2262188" y="1524001"/>
+          <a:ext cx="452437" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>2375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>3738</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="曲折矢印 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5680740" y="1524000"/>
+          <a:ext cx="5906863" cy="4000500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2458"/>
+            <a:gd name="adj2" fmla="val 2332"/>
+            <a:gd name="adj3" fmla="val 2940"/>
+            <a:gd name="adj4" fmla="val 10963"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="正方形/長方形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11201400" y="7048500"/>
+          <a:ext cx="914400" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Status Reg</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>119059</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="左右矢印 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10515600" y="9144000"/>
+          <a:ext cx="347659" cy="261936"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="5905500"/>
+          <a:ext cx="914400" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>IDL_L</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123392</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="右矢印 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="5524500"/>
+          <a:ext cx="1028267" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2940844" y="1523999"/>
+          <a:ext cx="2488406" cy="952501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>ALU</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>142873</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>35717</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="左右矢印 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9191623" y="6000748"/>
+          <a:ext cx="345282" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>154782</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83342</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="左右矢印 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9203532" y="9417842"/>
+          <a:ext cx="345282" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83342</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="右矢印 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4298156" y="9417842"/>
+          <a:ext cx="3619500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>154782</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="左右矢印 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9203532" y="8763000"/>
+          <a:ext cx="345282" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>2380</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>2381</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="右矢印 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6788943" y="8417718"/>
+          <a:ext cx="1131094" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="右矢印 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4298156" y="8572500"/>
+          <a:ext cx="3619500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6334125" y="5334000"/>
+          <a:ext cx="226219" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ADDR-BACK-L</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5881689" y="5334000"/>
+          <a:ext cx="226217" cy="3488531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ADDR-BACK-H</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>91675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>2379</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="曲折矢印 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="4842269" y="3238498"/>
+          <a:ext cx="815579" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9727406" y="1524001"/>
+          <a:ext cx="226219" cy="9143999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INT-D-BUS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="曲折矢印 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1565674" y="7506890"/>
+          <a:ext cx="3655218" cy="452437"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4446,8 +8172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BI33" sqref="BI33"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AV28" sqref="AV28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4465,12 +8191,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="8" max="8" width="3.42578125" customWidth="1"/>
+  </cols>
   <sheetData/>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4485,4 +8216,17 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/mos6502-bus.xlsx
+++ b/doc/mos6502-bus.xlsx
@@ -4596,14 +4596,14 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4612,8 +4612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7239000" y="3048001"/>
-          <a:ext cx="226219" cy="1333500"/>
+          <a:off x="7450667" y="762001"/>
+          <a:ext cx="232833" cy="2476500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6528,14 +6528,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>2379</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>226217</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6544,8 +6544,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5657848" y="2095501"/>
-          <a:ext cx="2259807" cy="190500"/>
+          <a:off x="5823212" y="571500"/>
+          <a:ext cx="2319338" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -7540,7 +7540,7 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -7556,8 +7556,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6334125" y="5334000"/>
-          <a:ext cx="226219" cy="3429000"/>
+          <a:off x="6519333" y="2667000"/>
+          <a:ext cx="232834" cy="2476500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7853,6 +7853,58 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="右矢印 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5820833" y="952500"/>
+          <a:ext cx="1397000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8192,7 +8244,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/doc/mos6502-bus.xlsx
+++ b/doc/mos6502-bus.xlsx
@@ -4908,17 +4908,17 @@
         <a:ln/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -6341,13 +6341,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="3">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -8244,7 +8244,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
+      <selection activeCell="BI36" sqref="BI36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/doc/mos6502-bus.xlsx
+++ b/doc/mos6502-bus.xlsx
@@ -4142,13 +4142,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123392</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4194,13 +4194,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4264,13 +4264,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4332,15 +4332,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4350,8 +4350,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="452438" y="3238500"/>
-          <a:ext cx="226218" cy="2286000"/>
+          <a:off x="232833" y="762000"/>
+          <a:ext cx="232834" cy="6286500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4402,15 +4402,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4420,8 +4420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="904875" y="1524001"/>
-          <a:ext cx="681037" cy="190500"/>
+          <a:off x="698500" y="1905000"/>
+          <a:ext cx="933714" cy="190501"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -4456,13 +4456,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>3</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>35718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4526,13 +4526,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4596,14 +4596,14 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4612,8 +4612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7450667" y="762001"/>
-          <a:ext cx="232833" cy="2476500"/>
+          <a:off x="7450667" y="1333499"/>
+          <a:ext cx="232833" cy="2286001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4637,7 +4637,7 @@
         <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -4664,15 +4664,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>157163</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4682,8 +4682,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11333163" y="6858000"/>
-          <a:ext cx="1239838" cy="190500"/>
+          <a:off x="6286501" y="8572500"/>
+          <a:ext cx="6286500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4710,9 +4710,8 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>DIO</a:t>
+            <a:t>D-BUS</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4722,13 +4721,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>119066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4774,13 +4773,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4831,13 +4830,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4883,13 +4882,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4940,13 +4939,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4997,13 +4996,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5054,13 +5053,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>2380</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>2381</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5106,13 +5105,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5158,13 +5157,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>142873</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>35717</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5210,13 +5209,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>130968</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>35718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>83342</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5262,13 +5261,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5314,13 +5313,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5364,15 +5363,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5421,15 +5420,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>261936</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:colOff>3740</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5439,8 +5438,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="11451431" y="8741569"/>
-          <a:ext cx="190500" cy="233361"/>
+          <a:off x="10997954" y="7501714"/>
+          <a:ext cx="1524000" cy="236572"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -5475,13 +5474,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5527,13 +5526,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>16920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>173581</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5584,13 +5583,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5641,117 +5640,117 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="右矢印 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9137651" y="3238500"/>
+          <a:ext cx="641349" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="右矢印 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7916333" y="3238500"/>
+          <a:ext cx="232834" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="右矢印 47"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8879682" y="3429000"/>
-          <a:ext cx="621506" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="右矢印 49"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7691438" y="3429000"/>
-          <a:ext cx="226218" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5802,26 +5801,78 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="右矢印 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9137651" y="2667000"/>
+          <a:ext cx="641349" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="右矢印 51"/>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="右矢印 52"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8879682" y="2857500"/>
-          <a:ext cx="621506" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightArrow">
+          <a:off x="7916333" y="2667000"/>
+          <a:ext cx="232834" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -5852,67 +5903,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="右矢印 52"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7691438" y="2857500"/>
-          <a:ext cx="226218" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>190498</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5963,13 +5962,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6015,13 +6014,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>107159</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6070,15 +6069,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6088,8 +6087,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="914400" y="3429000"/>
-          <a:ext cx="685799" cy="190500"/>
+          <a:off x="698500" y="2857500"/>
+          <a:ext cx="927099" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -6124,13 +6123,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>119065</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6181,13 +6180,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>16180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>174321</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6258,13 +6257,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>2380</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>2380</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6313,15 +6312,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6370,15 +6369,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6422,15 +6421,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6476,13 +6475,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6528,13 +6527,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>2379</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>226217</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6580,13 +6579,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6632,13 +6631,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>3</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6684,13 +6683,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6736,13 +6735,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>2379</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>2381</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6788,13 +6787,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6840,13 +6839,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6892,13 +6891,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>2375</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>3738</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6951,15 +6950,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7008,16 +7007,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>119059</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>31882</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>96388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>84665</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7025,9 +7024,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10515600" y="9144000"/>
-          <a:ext cx="347659" cy="261936"/>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="9864302" y="8086301"/>
+          <a:ext cx="559777" cy="200952"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
@@ -7062,13 +7061,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7119,13 +7118,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123392</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7171,13 +7170,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7228,13 +7227,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>142873</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>95248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>35717</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>95248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7280,13 +7279,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>154782</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>83342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>83342</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7332,13 +7331,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>83342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>83342</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7384,13 +7383,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>154782</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7436,13 +7435,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>2380</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>35718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>2381</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>35718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7488,13 +7487,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7540,13 +7539,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7610,13 +7609,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7680,13 +7679,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>91675</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>190498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>2379</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7736,13 +7735,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7806,13 +7805,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>35718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7862,13 +7861,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7905,6 +7904,67 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="931333" y="190500"/>
+          <a:ext cx="13737167" cy="8001000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2646"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" sz="1800"/>
+            <a:t>MOS 6502 CPU</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8224,8 +8284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AV28" sqref="AV28"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AU33" sqref="AU33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8243,8 +8303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BI36" sqref="BI36"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W48" sqref="W48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/doc/mos6502-bus.xlsx
+++ b/doc/mos6502-bus.xlsx
@@ -4142,13 +4142,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123392</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4194,13 +4194,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4264,13 +4264,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4334,13 +4334,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4404,13 +4404,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4456,13 +4456,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>3</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>35718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4526,13 +4526,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4596,13 +4596,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4666,13 +4666,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4721,13 +4721,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>119066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4773,13 +4773,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4830,13 +4830,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4882,13 +4882,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4939,13 +4939,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4996,13 +4996,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5053,13 +5053,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>2380</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>2381</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5105,13 +5105,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5157,13 +5157,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>142873</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>35717</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5209,13 +5209,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>130968</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>35718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>83342</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5261,13 +5261,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5313,13 +5313,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5365,13 +5365,13 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5422,13 +5422,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>3740</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5474,13 +5474,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5526,13 +5526,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>16920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>173581</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5583,13 +5583,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5640,13 +5640,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5692,13 +5692,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5744,13 +5744,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5801,13 +5801,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5853,13 +5853,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5905,13 +5905,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>190498</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5962,13 +5962,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6014,13 +6014,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>107159</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6071,13 +6071,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6123,13 +6123,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>119065</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6180,13 +6180,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>16180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>174321</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6257,13 +6257,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>2380</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>2380</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6302,7 +6302,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>addr calc</a:t>
+            <a:t>Address</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>Calcurator</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
         </a:p>
@@ -6314,13 +6322,13 @@
     <xdr:from>
       <xdr:col>55</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6371,13 +6379,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6423,13 +6431,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6475,13 +6483,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6527,13 +6535,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>2379</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>226217</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6579,13 +6587,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6631,13 +6639,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>3</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6683,13 +6691,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6735,13 +6743,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>2379</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>2381</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6787,13 +6795,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6839,13 +6847,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6891,13 +6899,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>2375</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>3738</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6952,13 +6960,13 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7009,13 +7017,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>31882</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>96388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>84665</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7061,13 +7069,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7118,13 +7126,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123392</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7171,13 +7179,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7186,8 +7194,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2940844" y="1523999"/>
-          <a:ext cx="2488406" cy="952501"/>
+          <a:off x="3026833" y="381000"/>
+          <a:ext cx="2561167" cy="1524001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7227,13 +7235,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>142873</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>95248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>35717</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>95248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7279,13 +7287,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>154782</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>83342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>83342</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7331,13 +7339,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>83342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>83342</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7383,13 +7391,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>154782</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7435,13 +7443,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>2380</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>35718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>2381</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>35718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7487,13 +7495,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7539,13 +7547,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7609,13 +7617,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7679,13 +7687,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>91675</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>190498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>2379</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7741,7 +7749,7 @@
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7751,8 +7759,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9727406" y="1524001"/>
-          <a:ext cx="226219" cy="9143999"/>
+          <a:off x="10011833" y="571501"/>
+          <a:ext cx="232834" cy="6286499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7805,13 +7813,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>35718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7861,13 +7869,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7914,13 +7922,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7929,8 +7937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="931333" y="190500"/>
-          <a:ext cx="13737167" cy="8001000"/>
+          <a:off x="931333" y="190501"/>
+          <a:ext cx="13504334" cy="8382000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7965,6 +7973,58 @@
             <a:rPr kumimoji="1" lang="en-US" sz="1800"/>
             <a:t>MOS 6502 CPU</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>232832</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>232832</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="右矢印 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5820832" y="730250"/>
+          <a:ext cx="3958167" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8303,8 +8363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W48" sqref="W48"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/doc/mos6502-bus.xlsx
+++ b/doc/mos6502-bus.xlsx
@@ -5905,14 +5905,14 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>190498</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5921,8 +5921,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8143875" y="1523999"/>
-          <a:ext cx="452438" cy="952499"/>
+          <a:off x="8382000" y="1143001"/>
+          <a:ext cx="465667" cy="571499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7178,7 +7178,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -7194,8 +7194,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3026833" y="381000"/>
-          <a:ext cx="2561167" cy="1524001"/>
+          <a:off x="3026833" y="571500"/>
+          <a:ext cx="2561167" cy="1333501"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8364,7 +8364,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="BO25" sqref="BO25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/doc/mos6502-bus.xlsx
+++ b/doc/mos6502-bus.xlsx
@@ -1,34 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motooka\Documents\001-proj\999.my-proj\001.nes-fpga\repo\motonesfpga\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="22635" windowHeight="11655"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="22635" windowHeight="11655" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="old" sheetId="1" r:id="rId1"/>
+    <sheet name="new" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -62,10 +68,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -73,15 +87,67 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123392</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="右矢印 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="6858000"/>
+          <a:ext cx="1028267" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -145,13 +211,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -215,13 +281,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -285,13 +351,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -337,13 +403,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -407,13 +473,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -477,13 +543,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -547,13 +613,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -617,13 +683,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -687,13 +753,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -757,13 +823,13 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -813,13 +879,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>119066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -865,13 +931,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -922,13 +988,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -974,13 +1040,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1026,13 +1092,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1078,13 +1144,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1130,13 +1196,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1182,13 +1248,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1239,13 +1305,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>261936</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1296,13 +1362,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1353,13 +1419,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1410,13 +1476,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1462,13 +1528,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1512,119 +1578,119 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>142873</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>35717</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="左右矢印 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10620373" y="4810125"/>
+          <a:ext cx="416719" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>83342</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="左右矢印 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10608468" y="7846218"/>
+          <a:ext cx="476249" cy="214313"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="右矢印 34"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8486775" y="1714500"/>
-          <a:ext cx="257175" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="右矢印 35"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10739438" y="7810500"/>
-          <a:ext cx="261937" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1670,13 +1736,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1722,13 +1788,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1779,13 +1845,13 @@
     <xdr:from>
       <xdr:col>50</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>261936</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1831,13 +1897,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1883,13 +1949,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1940,13 +2006,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1992,13 +2058,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2044,13 +2110,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2063,7 +2129,7 @@
           <a:off x="6810375" y="7810500"/>
           <a:ext cx="4191000" cy="190500"/>
         </a:xfrm>
-        <a:prstGeom prst="rightArrow">
+        <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -2096,13 +2162,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2153,13 +2219,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2172,7 +2238,7 @@
           <a:off x="9315451" y="1524000"/>
           <a:ext cx="714374" cy="190500"/>
         </a:xfrm>
-        <a:prstGeom prst="rightArrow">
+        <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -2205,13 +2271,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2257,13 +2323,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2314,13 +2380,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2333,7 +2399,7 @@
           <a:off x="9315451" y="571500"/>
           <a:ext cx="714374" cy="190500"/>
         </a:xfrm>
-        <a:prstGeom prst="rightArrow">
+        <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -2366,13 +2432,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2418,13 +2484,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>190498</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2475,13 +2541,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2527,13 +2593,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2546,7 +2612,7 @@
           <a:off x="10272714" y="2476500"/>
           <a:ext cx="728661" cy="190500"/>
         </a:xfrm>
-        <a:prstGeom prst="rightArrow">
+        <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -2579,13 +2645,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2636,13 +2702,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2688,13 +2754,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>119065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>119065</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2743,15 +2809,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>74604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2761,8 +2827,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2357438" y="7429500"/>
-          <a:ext cx="785812" cy="2476500"/>
+          <a:off x="1131094" y="6170604"/>
+          <a:ext cx="1357313" cy="3163896"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2813,119 +2879,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="右矢印 62"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3405188" y="7620000"/>
-          <a:ext cx="785812" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="右矢印 63"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3405188" y="9525000"/>
-          <a:ext cx="785812" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2989,13 +2951,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3045,13 +3007,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3102,13 +3064,13 @@
     <xdr:from>
       <xdr:col>56</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3159,13 +3121,13 @@
     <xdr:from>
       <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3211,13 +3173,13 @@
     <xdr:from>
       <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3263,13 +3225,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3315,13 +3277,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3367,13 +3329,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3419,13 +3381,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3475,13 +3437,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3527,13 +3489,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3579,13 +3541,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3631,13 +3593,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3683,13 +3645,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3735,13 +3697,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3787,13 +3749,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3844,13 +3806,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>257169</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>258531</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3905,13 +3867,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3962,13 +3924,13 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>119059</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>71436</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4014,13 +3976,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4071,13 +4033,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4091,6 +4053,3955 @@
           <a:ext cx="261937" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123392</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="右矢印 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="8953500"/>
+          <a:ext cx="1028267" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123392</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="右矢印 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="4762500"/>
+          <a:ext cx="1028267" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="952500"/>
+          <a:ext cx="228600" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ADL</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="2857500"/>
+          <a:ext cx="226219" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ADH</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="232833" y="762000"/>
+          <a:ext cx="232834" cy="6286500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A-BUS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2381</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="右矢印 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="698500" y="1905000"/>
+          <a:ext cx="933714" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3845720" y="3429000"/>
+          <a:ext cx="226221" cy="1559718"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BAL</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3845721" y="8001000"/>
+          <a:ext cx="226218" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BAH</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7450667" y="1333499"/>
+          <a:ext cx="232833" cy="2286001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INDEX-BUS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286501" y="8572500"/>
+          <a:ext cx="6286500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>D-BUS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>119066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="左右矢印 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9753602" y="8577265"/>
+          <a:ext cx="380997" cy="228599"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8143875" y="9334500"/>
+          <a:ext cx="904875" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>IDL_H</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107158</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="右矢印 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4343399" y="6012658"/>
+          <a:ext cx="3657600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9501188" y="8001000"/>
+          <a:ext cx="678656" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Data Bus Buffer</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8143875" y="6667500"/>
+          <a:ext cx="904875" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PCL</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8143875" y="8572500"/>
+          <a:ext cx="904875" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PCH</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>2380</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>2381</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="右矢印 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6788943" y="6858000"/>
+          <a:ext cx="1131094" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="右矢印 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6334125" y="8572500"/>
+          <a:ext cx="1583531" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>142873</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>35717</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="左右矢印 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9191623" y="6786563"/>
+          <a:ext cx="345282" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>83342</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="左右矢印 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9274968" y="8227218"/>
+          <a:ext cx="409574" cy="214313"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="右矢印 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4343400" y="4953000"/>
+          <a:ext cx="3657600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="右矢印 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4298156" y="8953500"/>
+          <a:ext cx="3619500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11201400" y="8001000"/>
+          <a:ext cx="914400" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Instruction Reg</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>3740</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="右矢印 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="10997954" y="7501714"/>
+          <a:ext cx="1524000" cy="236572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="左右矢印 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10286999" y="7239000"/>
+          <a:ext cx="685800" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>16920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>173581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8143875" y="8589420"/>
+          <a:ext cx="904875" cy="537661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SP</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="4000500"/>
+          <a:ext cx="457200" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="右矢印 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9137651" y="3238500"/>
+          <a:ext cx="641349" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="右矢印 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7916333" y="3238500"/>
+          <a:ext cx="232834" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="3048000"/>
+          <a:ext cx="457200" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>X</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="右矢印 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9137651" y="2667000"/>
+          <a:ext cx="641349" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="右矢印 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7916333" y="2667000"/>
+          <a:ext cx="232834" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="1143001"/>
+          <a:ext cx="465667" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ACC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="右矢印 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8879682" y="1905000"/>
+          <a:ext cx="621506" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="二等辺三角形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1095375" y="1559720"/>
+          <a:ext cx="297658" cy="226219"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TSS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="右矢印 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="698500" y="2857500"/>
+          <a:ext cx="927099" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119065</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="二等辺三角形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1066800" y="3433765"/>
+          <a:ext cx="381000" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TSS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>16180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>174321</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1625599" y="4588180"/>
+          <a:ext cx="935569" cy="1301141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Reset</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>NMI</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>IRQ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Vector</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2380</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>2380</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943224" y="3238500"/>
+          <a:ext cx="2488406" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>Address</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>Calcurator</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13038667" y="190499"/>
+          <a:ext cx="931333" cy="6286501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>Decoder</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="右矢印 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344400" y="8191500"/>
+          <a:ext cx="228600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="左右矢印 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344400" y="7239000"/>
+          <a:ext cx="228600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="左右矢印 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5655469" y="4381500"/>
+          <a:ext cx="3845719" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>2379</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>226217</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="右矢印 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5823212" y="571500"/>
+          <a:ext cx="2319338" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="右矢印 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5715000" y="3048000"/>
+          <a:ext cx="1371600" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="右矢印 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3863581" y="3411140"/>
+          <a:ext cx="190500" cy="226220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="右矢印 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715001" y="3619500"/>
+          <a:ext cx="457200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>2379</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>2381</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="右矢印 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5657848" y="1714500"/>
+          <a:ext cx="2262189" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="右矢印 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2286000" y="3429000"/>
+          <a:ext cx="457200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="右矢印 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2262188" y="1524001"/>
+          <a:ext cx="452437" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>2375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>3738</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="曲折矢印 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5680740" y="1524000"/>
+          <a:ext cx="5906863" cy="4000500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2458"/>
+            <a:gd name="adj2" fmla="val 2332"/>
+            <a:gd name="adj3" fmla="val 2940"/>
+            <a:gd name="adj4" fmla="val 10963"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="正方形/長方形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11201400" y="7048500"/>
+          <a:ext cx="914400" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Status Reg</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>31882</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>96388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>84665</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="左右矢印 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="9864302" y="8086301"/>
+          <a:ext cx="559777" cy="200952"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="5905500"/>
+          <a:ext cx="914400" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>IDL_L</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123392</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="右矢印 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="5524500"/>
+          <a:ext cx="1028267" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3026833" y="571500"/>
+          <a:ext cx="2561167" cy="1333501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>ALU</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>142873</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>35717</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="左右矢印 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9191623" y="6000748"/>
+          <a:ext cx="345282" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>154782</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>83342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>83342</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="左右矢印 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9203532" y="9417842"/>
+          <a:ext cx="345282" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>83342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>83342</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="右矢印 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4298156" y="9417842"/>
+          <a:ext cx="3619500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>154782</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="左右矢印 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9203532" y="8763000"/>
+          <a:ext cx="345282" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>2380</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>2381</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="右矢印 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6788943" y="8417718"/>
+          <a:ext cx="1131094" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="右矢印 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4298156" y="8572500"/>
+          <a:ext cx="3619500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6519333" y="2667000"/>
+          <a:ext cx="232834" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ADDR-BACK-L</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5881689" y="5334000"/>
+          <a:ext cx="226217" cy="3488531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ADDR-BACK-H</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>91675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>2379</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="曲折矢印 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="4842269" y="3238498"/>
+          <a:ext cx="815579" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10011833" y="571501"/>
+          <a:ext cx="232834" cy="6286499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INT-D-BUS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="曲折矢印 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1565674" y="7506890"/>
+          <a:ext cx="3655218" cy="452437"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="右矢印 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5820833" y="952500"/>
+          <a:ext cx="1397000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="931333" y="190501"/>
+          <a:ext cx="13504334" cy="8382000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2646"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" sz="1800"/>
+            <a:t>MOS 6502 CPU</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>232832</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>232832</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="右矢印 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5820832" y="730250"/>
+          <a:ext cx="3958167" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -4430,16 +8341,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AU33" sqref="AU33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="8" max="8" width="3.375" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
@@ -4449,25 +8360,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BO25" sqref="BO25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="8" max="8" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/mos6502-bus.xlsx
+++ b/doc/mos6502-bus.xlsx
@@ -4140,58 +4140,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>123392</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="右矢印 73"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2714625" y="4762500"/>
-          <a:ext cx="1028267" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -6178,83 +6126,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>16180</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>174321</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="正方形/長方形 60"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1625599" y="4588180"/>
-          <a:ext cx="935569" cy="1301141"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>Reset</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>NMI</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>IRQ</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>Vector</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>2380</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -7116,58 +6987,6 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>IDL_L</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>123392</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="右矢印 73"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2714625" y="5524500"/>
-          <a:ext cx="1028267" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -8024,6 +7843,69 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>34130</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>21165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38363</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>21165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3060963" y="2116665"/>
+          <a:ext cx="702733" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Reset</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Vector</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -8363,8 +8245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BO25" sqref="BO25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/doc/mos6502-bus.xlsx
+++ b/doc/mos6502-bus.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motooka\Documents\001-proj\999.my-proj\001.nes-fpga\repo\motonesfpga\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="22635" windowHeight="11655" activeTab="1"/>
   </bookViews>
@@ -29,19 +24,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -75,7 +70,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4456,15 +4451,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4474,8 +4469,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5248275" y="4762500"/>
-          <a:ext cx="1104900" cy="1333500"/>
+          <a:off x="5657850" y="5486400"/>
+          <a:ext cx="1571625" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4563,7 +4558,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4573,8 +4568,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5800725" y="4191000"/>
-          <a:ext cx="0" cy="571500"/>
+          <a:off x="6600825" y="4800600"/>
+          <a:ext cx="0" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4896,15 +4891,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4914,8 +4909,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3590925" y="5715000"/>
-          <a:ext cx="828675" cy="762000"/>
+          <a:off x="2514600" y="5486400"/>
+          <a:ext cx="942975" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4960,13 +4955,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4976,8 +4971,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3590925" y="6667500"/>
-          <a:ext cx="828675" cy="762000"/>
+          <a:off x="4086225" y="5829300"/>
+          <a:ext cx="942975" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5013,15 +5008,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5031,8 +5026,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4419600" y="6096000"/>
-          <a:ext cx="828675" cy="0"/>
+          <a:off x="2828925" y="5143500"/>
+          <a:ext cx="3457576" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5057,15 +5052,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5074,9 +5069,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4419600" y="7048500"/>
-          <a:ext cx="828675" cy="0"/>
+        <a:xfrm>
+          <a:off x="5972174" y="5143500"/>
+          <a:ext cx="1" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5428,13 +5423,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5444,8 +5439,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7181850" y="5905500"/>
-          <a:ext cx="828675" cy="762000"/>
+          <a:off x="8172450" y="5657850"/>
+          <a:ext cx="942975" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5483,13 +5478,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5499,8 +5494,272 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6353175" y="6286500"/>
-          <a:ext cx="828675" cy="0"/>
+          <a:off x="7229475" y="6000750"/>
+          <a:ext cx="942975" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Connector 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="4286250"/>
+          <a:ext cx="0" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Connector 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="5143500"/>
+          <a:ext cx="1" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Connector 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5029201" y="6172200"/>
+          <a:ext cx="628649" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801100" y="2400300"/>
+          <a:ext cx="0" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="3086100"/>
+          <a:ext cx="4086225" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Connector 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="3086100"/>
+          <a:ext cx="0" cy="2057400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5834,32 +6093,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="8" max="8" width="3.42578125" customWidth="1"/>
+    <col min="8" max="8" width="3.375" customWidth="1"/>
   </cols>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI14" sqref="AI14"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="17" spans="6:6">
       <c r="F17" t="s">
@@ -5874,12 +6134,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/mos6502-bus.xlsx
+++ b/doc/mos6502-bus.xlsx
@@ -11,7 +11,7 @@
     <sheet name="rtl block" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -4413,7 +4413,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4425,8 +4425,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2486025" y="4572000"/>
-          <a:ext cx="8839200" cy="0"/>
+          <a:off x="2828925" y="4800600"/>
+          <a:ext cx="7543800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4453,13 +4453,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4506,15 +4506,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4524,8 +4524,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3314700" y="4000500"/>
-          <a:ext cx="0" cy="571500"/>
+          <a:off x="4086225" y="4286250"/>
+          <a:ext cx="0" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4558,7 +4558,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4569,7 +4569,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6600825" y="4800600"/>
-          <a:ext cx="0" cy="685800"/>
+          <a:ext cx="0" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4792,13 +4792,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4810,8 +4810,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8562975" y="2667000"/>
-          <a:ext cx="1104900" cy="952500"/>
+          <a:off x="11001375" y="3429000"/>
+          <a:ext cx="1257300" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4847,15 +4847,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4865,8 +4865,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9115425" y="3619500"/>
-          <a:ext cx="0" cy="571500"/>
+          <a:off x="11315700" y="4286250"/>
+          <a:ext cx="0" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4893,13 +4893,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4955,13 +4955,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5010,13 +5010,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5054,13 +5054,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5262,13 +5262,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -5280,8 +5280,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10220325" y="3810000"/>
-          <a:ext cx="828675" cy="571500"/>
+          <a:off x="9429750" y="3429000"/>
+          <a:ext cx="942975" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5322,13 +5322,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -5340,8 +5340,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10496550" y="4381500"/>
-          <a:ext cx="0" cy="952500"/>
+          <a:off x="9744075" y="3943350"/>
+          <a:ext cx="0" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5423,13 +5423,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5478,13 +5478,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5528,7 +5528,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5539,7 +5539,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3457575" y="4286250"/>
-          <a:ext cx="0" cy="857250"/>
+          <a:ext cx="0" cy="1543050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5566,13 +5566,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5610,13 +5610,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5748,7 +5748,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5760,6 +5760,138 @@
         <a:xfrm>
           <a:off x="4714875" y="3086100"/>
           <a:ext cx="0" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Connector 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="5143500"/>
+          <a:ext cx="7858125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Connector 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="4286250"/>
+          <a:ext cx="0" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Connector 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915149" y="5143500"/>
+          <a:ext cx="1" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6116,7 +6248,7 @@
   <dimension ref="F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5"/>

--- a/doc/mos6502-bus.xlsx
+++ b/doc/mos6502-bus.xlsx
@@ -4057,6 +4057,14 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4101,6 +4109,14 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4145,6 +4161,14 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4189,6 +4213,14 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4288,6 +4320,14 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4387,6 +4427,14 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4431,6 +4479,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4530,6 +4583,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4574,6 +4632,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4728,6 +4791,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4772,6 +4840,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4871,6 +4944,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5032,6 +5110,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5076,6 +5159,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5180,6 +5268,14 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5346,6 +5442,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5500,6 +5601,14 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5544,6 +5653,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5588,6 +5702,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5632,6 +5751,13 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5676,6 +5802,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5720,6 +5851,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5764,6 +5900,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5808,6 +5949,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5852,6 +5998,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -5896,6 +6047,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -6248,7 +6404,7 @@
   <dimension ref="F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA35" sqref="AA35"/>
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5"/>
